--- a/Assets/Demo/Excel/DynamicExcels/PlayerData.xlsx
+++ b/Assets/Demo/Excel/DynamicExcels/PlayerData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/szn/Programmer/Unity5.6.4/UnityFramework/Assets/Demo/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/szn/Programmer/Unity5.6.4/UnityFramework/Assets/Demo/Excel/DynamicExcels/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -89,7 +89,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -123,49 +123,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -174,11 +146,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -456,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q19:Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -471,7 +440,7 @@
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -487,19 +456,8 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -516,7 +474,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
